--- a/pirc/poster/cs381v_project_results.xlsx
+++ b/pirc/poster/cs381v_project_results.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Code\caffe\pirc\poster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Technique</t>
   </si>
   <si>
     <t>Random</t>
-  </si>
-  <si>
-    <t>LeNet, Full</t>
   </si>
   <si>
     <t>LeNet, Full + Hard Neg</t>
@@ -37,15 +38,33 @@
   <si>
     <t>CaffeNet, Comb + Hard Neg</t>
   </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>mAP, N=600</t>
+  </si>
+  <si>
+    <t>LeNet, Full</t>
+  </si>
+  <si>
+    <t>LeNet, SS</t>
+  </si>
+  <si>
+    <t>with Hard Neg</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -54,29 +73,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Myriad Pro"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Myriad Pro"/>
       <family val="2"/>
     </font>
@@ -89,54 +94,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -195,17 +208,47 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1278088223832905"/>
+          <c:y val="3.8357245063955041E-2"/>
+          <c:w val="0.82615365131322582"/>
+          <c:h val="0.68140834367593495"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -213,28 +256,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Random"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Random</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="3"/>
           </c:marker>
           <c:xVal>
@@ -268,50 +301,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.140909090909091</c:v>
+                  <c:v>0.14090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0584615384615385</c:v>
+                  <c:v>5.8461538461538468E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0296078431372549</c:v>
+                  <c:v>2.9607843137254904E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0149009900990099</c:v>
+                  <c:v>1.49009900990099E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00498892580287929</c:v>
+                  <c:v>4.9889258028792917E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"LeNet"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LeNet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>LeNet, Full+Hard Neg</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="triangle"/>
             <c:size val="3"/>
           </c:marker>
           <c:xVal>
@@ -345,52 +374,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>0.26269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.13619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>7.6799999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>4.41E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0148</c:v>
+                  <c:v>1.5699999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"CaffeNet"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>CaffeNet, Full</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>CaffeNet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>CaffeNet, Comb</c:v>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="3"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
@@ -422,31 +496,108 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.279</c:v>
+                  <c:v>0.22120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1593</c:v>
+                  <c:v>0.12959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.081</c:v>
+                  <c:v>7.4800000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0463</c:v>
+                  <c:v>5.1400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0212</c:v>
+                  <c:v>2.75E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>CaffeNet, Comb+Hard Neg</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.87E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="51911691"/>
         <c:axId val="28279165"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="51911691"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -460,7 +611,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1600">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -468,30 +619,48 @@
                   </a:rPr>
                   <a:t># of reference images, N</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad Pro"/>
+                  </a:rPr>
+                  <a:t> (log)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="595959"/>
+                  </a:solidFill>
+                  <a:latin typeface="Myriad Pro"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:crossAx val="28279165"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="28279165"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:logBase val="10"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -499,7 +668,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -515,7 +684,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1600">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -526,21 +695,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:crossAx val="51911691"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -560,41 +731,48 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>888248</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>610448</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2291040" y="1427760"/>
-        <a:ext cx="6326280" cy="3561840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -607,165 +785,502 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5101214574899"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="24.53125"/>
+    <col min="2" max="7" width="8.53125"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.53125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.85">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1">
         <v>50</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>100</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>200</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>600</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10" ht="30.4" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">(1/(B1/2)+2/(B1/2+1))/2</f>
-        <v>0.140909090909091</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">(1/(C1/2)+2/(C1/2+1))/2</f>
-        <v>0.0584615384615385</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">(1/(D1/2)+2/(D1/2+1))/2</f>
-        <v>0.0296078431372549</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">(1/(E1/2)+2/(E1/2+1))/2</f>
-        <v>0.0149009900990099</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">(1/(F1/2)+2/(F1/2+1))/2</f>
-        <v>0.00498892580287929</v>
+      <c r="B2">
+        <f>(1/(B1/2)+2/(B1/2+1))/2</f>
+        <v>0.14090909090909093</v>
+      </c>
+      <c r="C2">
+        <f>(1/(C1/2)+2/(C1/2+1))/2</f>
+        <v>5.8461538461538468E-2</v>
+      </c>
+      <c r="D2">
+        <f>(1/(D1/2)+2/(D1/2+1))/2</f>
+        <v>2.9607843137254904E-2</v>
+      </c>
+      <c r="E2">
+        <f>(1/(E1/2)+2/(E1/2+1))/2</f>
+        <v>1.49009900990099E-2</v>
+      </c>
+      <c r="F2">
+        <f>(1/(F1/2)+2/(F1/2+1))/2</f>
+        <v>4.9889258028792917E-3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4.9889258028792917E-3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10" ht="30.4" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0.0148</v>
+      <c r="B3">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="D3">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.48293E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.5672499999999999E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10" ht="30.4" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.2627</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0768</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0441</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.0157</v>
+      <c r="B4">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.1593</v>
+      </c>
+      <c r="D4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.12E-2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.6138099999999999E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.7470300000000001E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" ht="30.4" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.1593</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.0463</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.0212</v>
+      <c r="B5">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="D5">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.7895199999999998E-2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.2212</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.1296</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.0748</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.0514</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.0275</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.2799</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B6">
+        <v>0.27989999999999998</v>
+      </c>
+      <c r="C6">
         <v>0.1449</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.0799</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">0.0287</f>
-        <v>0.0287</v>
+      <c r="D6">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <f>0.0287</f>
+        <v>2.87E-2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2.7535199999999999E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.8689699999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pirc/poster/cs381v_project_results.xlsx
+++ b/pirc/poster/cs381v_project_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Technique</t>
   </si>
@@ -56,13 +56,16 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>CaffeNet, C + HG + FB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,14 +135,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -255,9 +258,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Random</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19080">
               <a:solidFill>
@@ -328,9 +328,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>LeNet, Full+Hard Neg</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19080">
               <a:solidFill>
@@ -401,9 +398,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>CaffeNet, Full</c:v>
-          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
@@ -462,9 +456,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>CaffeNet, Comb</c:v>
-          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
@@ -523,9 +514,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>CaffeNet, Comb+Hard Neg</c:v>
-          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
@@ -578,6 +566,64 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-97B5-4923-A320-9B72ED82B183}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2799999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-567C-414F-AAF6-364FBAD5D4D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,6 +796,725 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1347997227282402"/>
+          <c:y val="3.8357222514125995E-2"/>
+          <c:w val="0.82893893131827634"/>
+          <c:h val="0.75113057362996916"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8461538461538468E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9607843137254904E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49009900990099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9889258028792917E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeNet, Full + Hard Neg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6799999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5699999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CaffeNet, Full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CaffeNet, Comb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CaffeNet, Comb + Hard Neg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.87E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CaffeNet, C + HG + FB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="57150"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2799999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ECBE-4947-A609-B6DAA5496DF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51911691"/>
+        <c:axId val="28279165"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51911691"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad Pro"/>
+                  </a:rPr>
+                  <a:t># of reference images, N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad Pro"/>
+                  </a:rPr>
+                  <a:t> (log)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="3200" b="1" dirty="0">
+                  <a:solidFill>
+                    <a:srgbClr val="595959"/>
+                  </a:solidFill>
+                  <a:latin typeface="Myriad Pro"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.27550166982722091"/>
+              <c:y val="0.87017827047648921"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="28279165"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28279165"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad Pro"/>
+                  </a:rPr>
+                  <a:t>mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51911691"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14051383414422366"/>
+          <c:y val="0.71644131436990299"/>
+          <c:w val="0.61578520752852095"/>
+          <c:h val="0.20521272864708023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -777,6 +1542,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548605</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155658</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1082,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1278,6 +2075,26 @@
         <v>2.8689699999999999E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.113</v>
+      </c>
+      <c r="E7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
